--- a/runs/ControlFile.xlsx
+++ b/runs/ControlFile.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/ebswp/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED90F935-B5C7-D342-895C-F9011D3427E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B50628-73FB-3346-89B3-B52358935BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42040" yWindow="-1340" windowWidth="19200" windowHeight="19340" xr2:uid="{6E3F6ADE-442B-FE4B-9381-B027FAEA0EB9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{6E3F6ADE-442B-FE4B-9381-B027FAEA0EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="231">
   <si>
     <t xml:space="preserve"> Flag to use covariance for bottom trawl survey</t>
   </si>
@@ -524,6 +530,207 @@
   </si>
   <si>
     <t>Reserved for larval drift penalty …</t>
+  </si>
+  <si>
+    <t>#DoCovBTS</t>
+  </si>
+  <si>
+    <t>#SrType</t>
+  </si>
+  <si>
+    <t>#Do_Combined</t>
+  </si>
+  <si>
+    <t>#use_age_err</t>
+  </si>
+  <si>
+    <t>#use_age1_eit</t>
+  </si>
+  <si>
+    <t>#age1_sigma_eit</t>
+  </si>
+  <si>
+    <t>#use_endyr_len</t>
+  </si>
+  <si>
+    <t>#use_popwts_ssb</t>
+  </si>
+  <si>
+    <t>#natmortprior</t>
+  </si>
+  <si>
+    <t>#cvnatmortprior</t>
+  </si>
+  <si>
+    <t>#natmort_in</t>
+  </si>
+  <si>
+    <t>#q_all_prior</t>
+  </si>
+  <si>
+    <t>#q_all_sigma</t>
+  </si>
+  <si>
+    <t>#q_bts_prior</t>
+  </si>
+  <si>
+    <t>#q_bts_sigma</t>
+  </si>
+  <si>
+    <t>#sigrprior</t>
+  </si>
+  <si>
+    <t>#cvsigrprior</t>
+  </si>
+  <si>
+    <t>#phase_sigr</t>
+  </si>
+  <si>
+    <t>#steepnessprior</t>
+  </si>
+  <si>
+    <t>#cvsteepnessprior</t>
+  </si>
+  <si>
+    <t>#phase_steepness</t>
+  </si>
+  <si>
+    <t>#use_spr_msy_pen</t>
+  </si>
+  <si>
+    <t>#sigma_spr_msy</t>
+  </si>
+  <si>
+    <t>#use_last_eit_ac</t>
+  </si>
+  <si>
+    <t>#nyrs_sel_avg</t>
+  </si>
+  <si>
+    <t>#do_bts_bio</t>
+  </si>
+  <si>
+    <t>#do_eit_bio</t>
+  </si>
+  <si>
+    <t>#srprior_a</t>
+  </si>
+  <si>
+    <t>#srprior_b</t>
+  </si>
+  <si>
+    <t>#nyrs_future;</t>
+  </si>
+  <si>
+    <t>#next_yrs_catch;</t>
+  </si>
+  <si>
+    <t>#nscen</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#fixed_catch_fut2;</t>
+  </si>
+  <si>
+    <t>#fixed_catch_fut3;</t>
+  </si>
+  <si>
+    <t>#phase_F40;</t>
+  </si>
+  <si>
+    <t>#robust_phase</t>
+  </si>
+  <si>
+    <t>#eit_robust_phase</t>
+  </si>
+  <si>
+    <t>#eit_like_type</t>
+  </si>
+  <si>
+    <t>#phase_logist_fsh</t>
+  </si>
+  <si>
+    <t>#phase_logist_bts</t>
+  </si>
+  <si>
+    <t>#phase_seldevs_fsh</t>
+  </si>
+  <si>
+    <t>#phase_seldevs_bts</t>
+  </si>
+  <si>
+    <t>#phase_age1devs_bts</t>
+  </si>
+  <si>
+    <t>#phase_selcoffs_eit</t>
+  </si>
+  <si>
+    <t>#phase_selcoffs_eit_dev</t>
+  </si>
+  <si>
+    <t>#phase_natmort</t>
+  </si>
+  <si>
+    <t>#phase_q_bts</t>
+  </si>
+  <si>
+    <t>#phase_q_std_area</t>
+  </si>
+  <si>
+    <t>#phase_q_eit</t>
+  </si>
+  <si>
+    <t>#phase_bt</t>
+  </si>
+  <si>
+    <t>#phase_rec_devs</t>
+  </si>
+  <si>
+    <t>#phase_larv</t>
+  </si>
+  <si>
+    <t>#phase_sr</t>
+  </si>
+  <si>
+    <t>#wt_fut_phase</t>
+  </si>
+  <si>
+    <t>#last_age_sel_group_fsh</t>
+  </si>
+  <si>
+    <t>#last_age_sel_group_bts</t>
+  </si>
+  <si>
+    <t>#last_age_sel_group_eit</t>
+  </si>
+  <si>
+    <t>#ctrl_flag</t>
+  </si>
+  <si>
+    <t>#sel_dev_shift</t>
+  </si>
+  <si>
+    <t>#phase_coheff</t>
+  </si>
+  <si>
+    <t>#phase_yreff</t>
+  </si>
+  <si>
+    <t>#switch_temp_recruitment</t>
+  </si>
+  <si>
+    <t>#phase_temp_recruitment</t>
+  </si>
+  <si>
+    <t>#switch_pred_mort</t>
+  </si>
+  <si>
+    <t>#phase_pred_mort</t>
+  </si>
+  <si>
+    <t>#switch_multispecies_fucntional_response</t>
   </si>
 </sst>
 </file>
@@ -532,8 +739,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -608,9 +815,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -926,59 +1133,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CF87E0-DDDF-C74A-A096-73DD518D7BF1}">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A143" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="A12" activeCellId="1" sqref="B15 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="1" max="2" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
-        <f>B1&amp;C1</f>
+        <f>C1&amp;D1</f>
         <v>#DoCovBTS</v>
       </c>
       <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A65" si="0">B2&amp;C2</f>
+        <f t="shared" ref="A2:A65" si="0">C2&amp;D2</f>
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#SrType</v>
       </c>
       <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -986,23 +1202,29 @@
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#Do_Combined</v>
       </c>
       <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1010,23 +1232,29 @@
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#use_age_err</v>
       </c>
       <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1034,23 +1262,29 @@
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#use_age1_eit</v>
       </c>
       <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1058,23 +1292,29 @@
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#age1_sigma_eit</v>
       </c>
       <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1082,47 +1322,59 @@
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#use_endyr_len</v>
       </c>
       <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#use_popwts_ssb</v>
       </c>
       <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1130,20 +1382,26 @@
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#natmortprior</v>
       </c>
       <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1151,20 +1409,26 @@
       <c r="B18">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#cvnatmortprior</v>
       </c>
       <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.1</v>
@@ -1172,20 +1436,26 @@
       <c r="B20">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#natmort_in</v>
       </c>
       <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.9</v>
@@ -1193,8 +1463,11 @@
       <c r="B22">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.45</v>
@@ -1202,8 +1475,11 @@
       <c r="B23">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1211,8 +1487,11 @@
       <c r="B24">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1220,8 +1499,11 @@
       <c r="B25">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1229,8 +1511,11 @@
       <c r="B26">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1238,8 +1523,11 @@
       <c r="B27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1247,8 +1535,11 @@
       <c r="B28">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1256,8 +1547,11 @@
       <c r="B29">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1265,8 +1559,11 @@
       <c r="B30">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1274,8 +1571,11 @@
       <c r="B31">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1283,8 +1583,11 @@
       <c r="B32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1292,8 +1595,11 @@
       <c r="B33">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1301,8 +1607,11 @@
       <c r="B34">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1310,8 +1619,11 @@
       <c r="B35">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.3</v>
@@ -1319,23 +1631,29 @@
       <c r="B36">
         <v>0.3</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36">
+        <v>0.3</v>
+      </c>
+      <c r="E36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#q_all_prior</v>
       </c>
       <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" t="s">
         <v>31</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1343,20 +1661,26 @@
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#q_all_sigma</v>
       </c>
       <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1364,20 +1688,26 @@
       <c r="B40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#q_bts_prior</v>
       </c>
       <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1385,20 +1715,26 @@
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#q_bts_sigma</v>
       </c>
       <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
         <v>31</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1406,20 +1742,26 @@
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#sigrprior</v>
       </c>
       <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" t="s">
         <v>31</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1427,20 +1769,26 @@
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#cvsigrprior</v>
       </c>
       <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
         <v>31</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.2</v>
@@ -1448,20 +1796,26 @@
       <c r="B48">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#phase_sigr</v>
       </c>
       <c r="B49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
         <v>31</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>-6</v>
@@ -1469,20 +1823,26 @@
       <c r="B50">
         <v>-6</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#steepnessprior</v>
       </c>
       <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
         <v>31</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -1490,20 +1850,26 @@
       <c r="B52">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#cvsteepnessprior</v>
       </c>
       <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.12</v>
@@ -1511,20 +1877,26 @@
       <c r="B54">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#phase_steepness</v>
       </c>
       <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
         <v>31</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1532,23 +1904,29 @@
       <c r="B56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#use_spr_msy_pen</v>
       </c>
       <c r="B57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
         <v>31</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1556,47 +1934,59 @@
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#sigma_spr_msy</v>
       </c>
       <c r="B59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" t="s">
         <v>31</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>53</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
       <c r="B60">
+        <v>0.2</v>
+      </c>
+      <c r="C60">
         <v>0.16</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#use_last_eit_ac</v>
       </c>
       <c r="B61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>54</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1604,77 +1994,95 @@
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#nyrs_sel_avg</v>
       </c>
       <c r="B63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" t="s">
         <v>31</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>55</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>22</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#do_bts_bio</v>
       </c>
       <c r="B65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" t="s">
         <v>31</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>56</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
-        <f t="shared" ref="A66:A129" si="1">B66&amp;C66</f>
+        <f t="shared" ref="A66:A129" si="1">C66&amp;D66</f>
         <v>1</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#do_eit_bio</v>
       </c>
       <c r="B67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" t="s">
         <v>31</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>57</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1682,23 +2090,29 @@
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#srprior_a</v>
       </c>
       <c r="B69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" t="s">
         <v>31</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>58</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>14.93209877</v>
@@ -1706,23 +2120,29 @@
       <c r="B70">
         <v>14.93209877</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>14.93209877</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#srprior_b</v>
       </c>
       <c r="B71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" t="s">
         <v>31</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>59</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>14.93209877</v>
@@ -1730,20 +2150,26 @@
       <c r="B72">
         <v>14.93209877</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>14.93209877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#nyrs_future;</v>
       </c>
       <c r="B73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" t="s">
         <v>31</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1751,95 +2177,119 @@
       <c r="B74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#next_yrs_catch;</v>
       </c>
       <c r="B75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>61</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>17</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1390</v>
       </c>
       <c r="B76">
+        <v>1200</v>
+      </c>
+      <c r="C76">
         <v>1390</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#nscen</v>
       </c>
       <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>109</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>19</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#fixed_catch_fut2;</v>
       </c>
       <c r="B79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" t="s">
         <v>31</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="B80">
+        <v>1100</v>
+      </c>
+      <c r="C80">
         <v>900</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#fixed_catch_fut3;</v>
       </c>
       <c r="B81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" t="s">
         <v>31</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -1847,20 +2297,26 @@
       <c r="B82">
         <v>1000</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_F40;</v>
       </c>
       <c r="B83" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" t="s">
         <v>31</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1868,20 +2324,26 @@
       <c r="B84">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#robust_phase</v>
       </c>
       <c r="B85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" t="s">
         <v>31</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1350</v>
@@ -1889,20 +2351,26 @@
       <c r="B86">
         <v>1350</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#eit_robust_phase</v>
       </c>
       <c r="B87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" t="s">
         <v>31</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>1350</v>
@@ -1910,23 +2378,29 @@
       <c r="B88">
         <v>1350</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#eit_like_type</v>
       </c>
       <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" t="s">
         <v>31</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>67</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1934,23 +2408,29 @@
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_logist_fsh</v>
       </c>
       <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" t="s">
         <v>31</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>68</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-1</v>
@@ -1958,23 +2438,29 @@
       <c r="B92">
         <v>-1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_logist_bts</v>
       </c>
       <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
         <v>31</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>69</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1982,23 +2468,29 @@
       <c r="B94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_seldevs_fsh</v>
       </c>
       <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
         <v>31</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>70</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2006,23 +2498,29 @@
       <c r="B96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_seldevs_bts</v>
       </c>
       <c r="B97" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" t="s">
         <v>31</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>71</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2030,23 +2528,29 @@
       <c r="B98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_age1devs_bts</v>
       </c>
       <c r="B99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" t="s">
         <v>31</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>72</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2054,20 +2558,26 @@
       <c r="B100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_selcoffs_eit</v>
       </c>
       <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" t="s">
         <v>31</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2075,20 +2585,26 @@
       <c r="B102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_selcoffs_eit_dev</v>
       </c>
       <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" t="s">
         <v>31</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-5</v>
@@ -2096,20 +2612,26 @@
       <c r="B104">
         <v>-5</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_natmort</v>
       </c>
       <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-6</v>
@@ -2117,23 +2639,29 @@
       <c r="B106">
         <v>-6</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_q_bts</v>
       </c>
       <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
         <v>31</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>76</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2141,20 +2669,26 @@
       <c r="B108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_q_std_area</v>
       </c>
       <c r="B109" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" t="s">
         <v>31</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2162,23 +2696,29 @@
       <c r="B110">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_q_eit</v>
       </c>
       <c r="B111" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" t="s">
         <v>31</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>78</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2186,23 +2726,29 @@
       <c r="B112">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_bt</v>
       </c>
       <c r="B113" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" t="s">
         <v>31</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>79</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-6</v>
@@ -2210,23 +2756,29 @@
       <c r="B114">
         <v>-6</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_rec_devs</v>
       </c>
       <c r="B115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" t="s">
         <v>31</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>80</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2234,23 +2786,29 @@
       <c r="B116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_larv</v>
       </c>
       <c r="B117" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" t="s">
         <v>31</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>81</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
         <f t="shared" si="1"/>
         <v>-3</v>
@@ -2258,23 +2816,29 @@
       <c r="B118">
         <v>-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#phase_sr</v>
       </c>
       <c r="B119" t="s">
+        <v>217</v>
+      </c>
+      <c r="C119" t="s">
         <v>31</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>82</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2282,23 +2846,29 @@
       <c r="B120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#wt_fut_phase</v>
       </c>
       <c r="B121" t="s">
+        <v>218</v>
+      </c>
+      <c r="C121" t="s">
         <v>31</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>83</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2306,41 +2876,53 @@
       <c r="B122">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#last_age_sel_group_fsh</v>
       </c>
       <c r="B123" t="s">
+        <v>219</v>
+      </c>
+      <c r="C123" t="s">
         <v>31</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#last_age_sel_group_bts</v>
       </c>
       <c r="B125" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" t="s">
         <v>31</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2348,20 +2930,26 @@
       <c r="B126">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#last_age_sel_group_eit</v>
       </c>
       <c r="B127" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" t="s">
         <v>31</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2369,35 +2957,44 @@
       <c r="B128">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#ctrl_flag</v>
       </c>
       <c r="B129" t="s">
+        <v>222</v>
+      </c>
+      <c r="C129" t="s">
         <v>31</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="str">
-        <f t="shared" ref="A130:A165" si="2">B130&amp;C130</f>
+        <f t="shared" ref="A130:A165" si="2">C130&amp;D130</f>
         <v>200</v>
       </c>
       <c r="B130">
         <v>200</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="C130">
+        <v>200</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2405,15 +3002,18 @@
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="D131">
-        <f>D130+1</f>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E159" si="3">E130+1</f>
         <v>2</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2421,15 +3021,18 @@
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="D132">
-        <f>D131+1</f>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2437,15 +3040,18 @@
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="D133">
-        <f>D132+1</f>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2453,15 +3059,18 @@
       <c r="B134">
         <v>1</v>
       </c>
-      <c r="D134">
-        <f>D133+1</f>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2469,31 +3078,37 @@
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="D135">
-        <f>D134+1</f>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <f>D135+1</f>
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2501,15 +3116,18 @@
       <c r="B137">
         <v>1</v>
       </c>
-      <c r="D137">
-        <f>D136+1</f>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2517,15 +3135,18 @@
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="D138">
-        <f>D137+1</f>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2533,15 +3154,18 @@
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="D139">
-        <f>D138+1</f>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2549,15 +3173,18 @@
       <c r="B140">
         <v>1</v>
       </c>
-      <c r="D140">
-        <f>D139+1</f>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2565,15 +3192,18 @@
       <c r="B141">
         <v>1</v>
       </c>
-      <c r="D141">
-        <f>D140+1</f>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="str">
         <f t="shared" si="2"/>
         <v>12.5</v>
@@ -2581,15 +3211,18 @@
       <c r="B142">
         <v>12.5</v>
       </c>
-      <c r="D142">
-        <f>D141+1</f>
+      <c r="C142">
+        <v>12.5</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2597,15 +3230,18 @@
       <c r="B143">
         <v>1</v>
       </c>
-      <c r="D143">
-        <f>D142+1</f>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2613,15 +3249,18 @@
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="D144">
-        <f>D143+1</f>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2629,15 +3268,18 @@
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="D145">
-        <f>D144+1</f>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2645,15 +3287,18 @@
       <c r="B146">
         <v>1</v>
       </c>
-      <c r="D146">
-        <f>D145+1</f>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2661,15 +3306,18 @@
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="D147">
-        <f>D146+1</f>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2677,15 +3325,18 @@
       <c r="B148">
         <v>1</v>
       </c>
-      <c r="D148">
-        <f>D147+1</f>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="str">
         <f t="shared" si="2"/>
         <v>3.125</v>
@@ -2693,15 +3344,18 @@
       <c r="B149">
         <v>3.125</v>
       </c>
-      <c r="D149">
-        <f>D148+1</f>
+      <c r="C149">
+        <v>3.125</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="str">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2709,15 +3363,18 @@
       <c r="B150">
         <v>5</v>
       </c>
-      <c r="D150">
-        <f>D149+1</f>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0.1</v>
@@ -2725,15 +3382,18 @@
       <c r="B151">
         <v>0.1</v>
       </c>
-      <c r="D151">
-        <f>D150+1</f>
+      <c r="C151">
+        <v>0.1</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="str">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2741,15 +3401,18 @@
       <c r="B152">
         <v>5</v>
       </c>
-      <c r="D152">
-        <f>D151+1</f>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2757,47 +3420,56 @@
       <c r="B153">
         <v>1</v>
       </c>
-      <c r="D153">
-        <f>D152+1</f>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
         <v>0</v>
       </c>
-      <c r="D154">
-        <f>D153+1</f>
+      <c r="E154">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B155" s="2">
-        <v>1</v>
-      </c>
-      <c r="D155">
-        <f>D154+1</f>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="str">
         <f t="shared" si="2"/>
         <v>-3</v>
@@ -2805,15 +3477,18 @@
       <c r="B156">
         <v>-3</v>
       </c>
-      <c r="D156">
-        <f>D155+1</f>
+      <c r="C156">
+        <v>-3</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2821,15 +3496,18 @@
       <c r="B157">
         <v>0</v>
       </c>
-      <c r="D157">
-        <f>D156+1</f>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -2837,15 +3515,18 @@
       <c r="B158">
         <v>2</v>
       </c>
-      <c r="D158">
-        <f>D157+1</f>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2853,27 +3534,33 @@
       <c r="B159">
         <v>1</v>
       </c>
-      <c r="D159">
-        <f>D158+1</f>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#sel_dev_shift</v>
       </c>
       <c r="B160" t="s">
+        <v>223</v>
+      </c>
+      <c r="C160" t="s">
         <v>31</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2881,20 +3568,26 @@
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#phase_coheff</v>
       </c>
       <c r="B162" t="s">
+        <v>224</v>
+      </c>
+      <c r="C162" t="s">
         <v>31</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2902,20 +3595,26 @@
       <c r="B163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="str">
         <f t="shared" si="2"/>
         <v>#phase_yreff</v>
       </c>
       <c r="B164" t="s">
+        <v>225</v>
+      </c>
+      <c r="C164" t="s">
         <v>31</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2923,45 +3622,81 @@
       <c r="B165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="8"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="8"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
+      <c r="B178" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,6 +3704,899 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4408AD-0DC7-994C-B1B9-55271D02271B}">
+  <dimension ref="A1:B175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A175"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>14.93209877</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>14.93209877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5AAF07-546D-E74F-852A-BFCA7F62F822}">
   <dimension ref="A1:AN78"/>
   <sheetViews>
@@ -7713,94 +9341,94 @@
       <c r="H73" s="6">
         <v>1000</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73">
         <v>2018</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K73" s="8" t="s">
+      <c r="J73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K73" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="M73" s="8">
+      <c r="L73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M73" s="7">
         <v>1.3915</v>
       </c>
-      <c r="N73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="O73" s="8">
+      <c r="N73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O73" s="7">
         <v>13.793799999999999</v>
       </c>
-      <c r="P73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q73" s="8">
+      <c r="P73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q73" s="7">
         <v>114.10210000000001</v>
       </c>
-      <c r="R73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="S73" s="8">
+      <c r="R73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="S73" s="7">
         <v>1216.6616000000001</v>
       </c>
-      <c r="T73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="U73" s="8">
+      <c r="T73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U73" s="7">
         <v>504.01499999999999</v>
       </c>
-      <c r="V73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="W73" s="8">
+      <c r="V73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="W73" s="7">
         <v>105.50830000000001</v>
       </c>
-      <c r="X73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y73" s="8">
+      <c r="X73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y73" s="7">
         <v>82.175200000000004</v>
       </c>
-      <c r="Z73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA73" s="8">
+      <c r="Z73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA73" s="7">
         <v>60.892000000000003</v>
       </c>
-      <c r="AB73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC73" s="8">
+      <c r="AB73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC73" s="7">
         <v>26.593499999999999</v>
       </c>
-      <c r="AD73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE73" s="8">
+      <c r="AD73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE73" s="7">
         <v>4.1882000000000001</v>
       </c>
-      <c r="AF73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG73" s="8">
+      <c r="AF73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG73" s="7">
         <v>1.2156</v>
       </c>
-      <c r="AH73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI73" s="8">
+      <c r="AH73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI73" s="7">
         <v>0.33160000000000001</v>
       </c>
-      <c r="AJ73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK73" s="8">
+      <c r="AJ73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK73" s="7">
         <v>1.1239000000000001</v>
       </c>
-      <c r="AL73" s="8" t="s">
+      <c r="AL73" s="7" t="s">
         <v>158</v>
       </c>
       <c r="AM73" s="5">

--- a/runs/ControlFile.xlsx
+++ b/runs/ControlFile.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/ebswp/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B50628-73FB-3346-89B3-B52358935BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0B273-8EC4-A54A-9994-730231E84D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{6E3F6ADE-442B-FE4B-9381-B027FAEA0EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -529,9 +530,6 @@
     <t>Switch for BTS sel penalty type (on lnsel, or params)</t>
   </si>
   <si>
-    <t>Reserved for larval drift penalty …</t>
-  </si>
-  <si>
     <t>#DoCovBTS</t>
   </si>
   <si>
@@ -731,6 +729,9 @@
   </si>
   <si>
     <t>#switch_multispecies_fucntional_response</t>
+  </si>
+  <si>
+    <t>Set 2018 YC to mean of 2012 and 2013 for projections</t>
   </si>
 </sst>
 </file>
@@ -808,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -817,7 +818,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CF87E0-DDDF-C74A-A096-73DD518D7BF1}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="B15 A12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" zoomScale="179" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1152,7 @@
         <v>#DoCovBTS</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
@@ -1182,7 +1182,7 @@
         <v>#SrType</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1212,7 +1212,7 @@
         <v>#Do_Combined</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1242,7 +1242,7 @@
         <v>#use_age_err</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -1272,7 +1272,7 @@
         <v>#use_age1_eit</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -1302,7 +1302,7 @@
         <v>#age1_sigma_eit</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -1332,7 +1332,7 @@
         <v>#use_endyr_len</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -1362,7 +1362,7 @@
         <v>#use_popwts_ssb</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1392,7 +1392,7 @@
         <v>#natmortprior</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1419,7 +1419,7 @@
         <v>#cvnatmortprior</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -1446,7 +1446,7 @@
         <v>#natmort_in</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1644,7 +1644,7 @@
         <v>#q_all_prior</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
@@ -1671,7 +1671,7 @@
         <v>#q_all_sigma</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -1698,7 +1698,7 @@
         <v>#q_bts_prior</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -1725,7 +1725,7 @@
         <v>#q_bts_sigma</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
@@ -1752,7 +1752,7 @@
         <v>#sigrprior</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
         <v>31</v>
@@ -1779,7 +1779,7 @@
         <v>#cvsigrprior</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
         <v>31</v>
@@ -1806,7 +1806,7 @@
         <v>#phase_sigr</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
         <v>31</v>
@@ -1833,7 +1833,7 @@
         <v>#steepnessprior</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
         <v>31</v>
@@ -1860,7 +1860,7 @@
         <v>#cvsteepnessprior</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
         <v>31</v>
@@ -1887,7 +1887,7 @@
         <v>#phase_steepness</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
@@ -1914,7 +1914,7 @@
         <v>#use_spr_msy_pen</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
@@ -1944,7 +1944,7 @@
         <v>#sigma_spr_msy</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
@@ -1974,7 +1974,7 @@
         <v>#use_last_eit_ac</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
         <v>31</v>
@@ -2004,7 +2004,7 @@
         <v>#nyrs_sel_avg</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
@@ -2040,7 +2040,7 @@
         <v>#do_bts_bio</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
         <v>31</v>
@@ -2070,7 +2070,7 @@
         <v>#do_eit_bio</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
@@ -2100,7 +2100,7 @@
         <v>#srprior_a</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
         <v>31</v>
@@ -2130,7 +2130,7 @@
         <v>#srprior_b</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
         <v>31</v>
@@ -2160,7 +2160,7 @@
         <v>#nyrs_future;</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
         <v>31</v>
@@ -2187,7 +2187,7 @@
         <v>#next_yrs_catch;</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
         <v>31</v>
@@ -2220,7 +2220,7 @@
         <v>#nscen</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C77" t="s">
         <v>31</v>
@@ -2253,7 +2253,7 @@
         <v>#fixed_catch_fut2;</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
         <v>31</v>
@@ -2280,7 +2280,7 @@
         <v>#fixed_catch_fut3;</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
         <v>31</v>
@@ -2307,7 +2307,7 @@
         <v>#phase_F40;</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
         <v>31</v>
@@ -2334,7 +2334,7 @@
         <v>#robust_phase</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
         <v>31</v>
@@ -2361,7 +2361,7 @@
         <v>#eit_robust_phase</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
@@ -2388,7 +2388,7 @@
         <v>#eit_like_type</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
         <v>31</v>
@@ -2418,7 +2418,7 @@
         <v>#phase_logist_fsh</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -2448,7 +2448,7 @@
         <v>#phase_logist_bts</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C93" t="s">
         <v>31</v>
@@ -2478,7 +2478,7 @@
         <v>#phase_seldevs_fsh</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s">
         <v>31</v>
@@ -2508,7 +2508,7 @@
         <v>#phase_seldevs_bts</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
         <v>31</v>
@@ -2538,7 +2538,7 @@
         <v>#phase_age1devs_bts</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
         <v>31</v>
@@ -2568,7 +2568,7 @@
         <v>#phase_selcoffs_eit</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
         <v>31</v>
@@ -2595,7 +2595,7 @@
         <v>#phase_selcoffs_eit_dev</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
         <v>31</v>
@@ -2622,7 +2622,7 @@
         <v>#phase_natmort</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C105" t="s">
         <v>31</v>
@@ -2649,7 +2649,7 @@
         <v>#phase_q_bts</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C107" t="s">
         <v>31</v>
@@ -2679,7 +2679,7 @@
         <v>#phase_q_std_area</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" t="s">
         <v>31</v>
@@ -2706,7 +2706,7 @@
         <v>#phase_q_eit</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
         <v>31</v>
@@ -2736,7 +2736,7 @@
         <v>#phase_bt</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C113" t="s">
         <v>31</v>
@@ -2766,7 +2766,7 @@
         <v>#phase_rec_devs</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C115" t="s">
         <v>31</v>
@@ -2796,7 +2796,7 @@
         <v>#phase_larv</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -2826,7 +2826,7 @@
         <v>#phase_sr</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
@@ -2856,7 +2856,7 @@
         <v>#wt_fut_phase</v>
       </c>
       <c r="B121" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
@@ -2886,7 +2886,7 @@
         <v>#last_age_sel_group_fsh</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C123" t="s">
         <v>31</v>
@@ -2913,7 +2913,7 @@
         <v>#last_age_sel_group_bts</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C125" t="s">
         <v>31</v>
@@ -2940,7 +2940,7 @@
         <v>#last_age_sel_group_eit</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
@@ -2967,7 +2967,7 @@
         <v>#ctrl_flag</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C129" t="s">
         <v>31</v>
@@ -3472,20 +3472,20 @@
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B156">
         <v>-3</v>
       </c>
       <c r="C156">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="F156" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -3551,7 +3551,7 @@
         <v>#sel_dev_shift</v>
       </c>
       <c r="B160" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C160" t="s">
         <v>31</v>
@@ -3578,7 +3578,7 @@
         <v>#phase_coheff</v>
       </c>
       <c r="B162" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C162" t="s">
         <v>31</v>
@@ -3605,7 +3605,7 @@
         <v>#phase_yreff</v>
       </c>
       <c r="B164" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C164" t="s">
         <v>31</v>
@@ -3629,7 +3629,7 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3641,7 +3641,7 @@
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -3653,7 +3653,7 @@
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -3665,7 +3665,7 @@
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -3677,7 +3677,7 @@
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -3688,15 +3688,12 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
-      <c r="B176" s="8"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
-      <c r="B177" s="8"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
-      <c r="B178" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3715,7 +3712,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -3725,7 +3722,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -3735,7 +3732,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3745,7 +3742,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -3755,7 +3752,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -3765,7 +3762,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -3775,7 +3772,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -3785,7 +3782,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -3795,7 +3792,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -3805,7 +3802,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -3815,7 +3812,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -3895,7 +3892,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -3905,7 +3902,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
@@ -3915,7 +3912,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -3925,7 +3922,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
@@ -3935,7 +3932,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -3945,7 +3942,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
@@ -3955,7 +3952,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -3965,7 +3962,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -3975,7 +3972,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -3985,7 +3982,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
@@ -3995,7 +3992,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
@@ -4005,7 +4002,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -4015,7 +4012,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
@@ -4025,7 +4022,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -4035,7 +4032,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4045,7 +4042,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4052,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4065,7 +4062,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4075,7 +4072,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4085,7 +4082,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4092,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,12 +4100,12 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4118,7 +4115,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
@@ -4128,7 +4125,7 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -4138,7 +4135,7 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
@@ -4148,7 +4145,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -4158,7 +4155,7 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
@@ -4168,7 +4165,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -4178,7 +4175,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
@@ -4188,7 +4185,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
@@ -4198,7 +4195,7 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
@@ -4208,7 +4205,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
@@ -4218,7 +4215,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
@@ -4228,7 +4225,7 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
@@ -4238,7 +4235,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
@@ -4248,7 +4245,7 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
@@ -4258,7 +4255,7 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
@@ -4268,7 +4265,7 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -4278,7 +4275,7 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
@@ -4288,7 +4285,7 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
@@ -4298,7 +4295,7 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -4308,7 +4305,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
@@ -4318,7 +4315,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
@@ -4328,7 +4325,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
@@ -4338,7 +4335,7 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
@@ -4348,7 +4345,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
@@ -4358,7 +4355,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
@@ -4513,7 +4510,7 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
@@ -4523,7 +4520,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
@@ -4533,7 +4530,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
@@ -4543,7 +4540,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
@@ -4553,7 +4550,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
@@ -4563,7 +4560,7 @@
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
@@ -4573,7 +4570,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
@@ -4583,7 +4580,7 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
@@ -4597,6 +4594,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924BC353-C18B-E341-A5DC-73D33B76F446}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5AAF07-546D-E74F-852A-BFCA7F62F822}">
   <dimension ref="A1:AN78"/>
   <sheetViews>
